--- a/WPB Projects.xlsx
+++ b/WPB Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Desktop\leerdocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston.brandon\OneDrive - de Bibliotheek Zuid-Kennemerland\Bureaublad\leerdocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8795C964-C386-467B-9C3B-B00E53D0D623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B03BB7C-4250-4117-95D6-68B62514FEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1155" windowWidth="20535" windowHeight="13485" activeTab="3" xr2:uid="{B850E935-9505-4BBD-A200-59FA45B684DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{B850E935-9505-4BBD-A200-59FA45B684DD}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENDA" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>WBP</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>Melanie Bonjano</t>
+  </si>
+  <si>
+    <t>Uitzoomen</t>
+  </si>
+  <si>
+    <t>Aan de hand van het narratief van de grote verteller inzoomen</t>
+  </si>
+  <si>
+    <t>Dit is de planeet aarde.</t>
+  </si>
+  <si>
+    <t>A pale blue dot</t>
+  </si>
+  <si>
+    <t>Quote carl sagan</t>
   </si>
 </sst>
 </file>
@@ -136,13 +151,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,7 +176,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,23 +478,23 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44840</v>
       </c>
@@ -487,7 +505,7 @@
         <v>4238</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44844</v>
       </c>
@@ -498,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44861</v>
       </c>
@@ -509,7 +527,7 @@
         <v>1839.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44883</v>
       </c>
@@ -520,7 +538,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44887</v>
       </c>
@@ -531,12 +549,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -547,7 +565,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44590</v>
       </c>
@@ -558,7 +576,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44702</v>
       </c>
@@ -566,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44713</v>
       </c>
@@ -577,7 +595,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>10</v>
       </c>
@@ -586,12 +604,12 @@
         <v>31827.200000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>12</v>
       </c>
@@ -609,7 +627,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -617,36 +635,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3504595C-CFBD-4736-BD10-27AFC2F95C3E}">
-  <dimension ref="A3:A7"/>
+  <dimension ref="A3:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -654,11 +701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B2BBD-A83E-41EF-8F71-96DF1AD06202}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -672,7 +719,7 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -686,12 +733,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
